--- a/output/1Y_P98_KFSDIV.xlsx
+++ b/output/1Y_P98_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.5481</v>
       </c>
       <c r="C2" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D2" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.3262</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E3" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="F3" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="H3" s="1">
-        <v>9789.6304</v>
+        <v>9750.5015</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9789.6304</v>
+        <v>9750.5015</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="M3" s="1">
         <v>0.25</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.021</v>
+        <v>-0.0249</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>10.462</v>
       </c>
       <c r="C4" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D4" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E4" s="1">
-        <v>1916.4485</v>
+        <v>1912.6185</v>
       </c>
       <c r="F4" s="1">
-        <v>955.8402</v>
+        <v>953.9254</v>
       </c>
       <c r="H4" s="1">
-        <v>20049.8841</v>
+        <v>19969.8405</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20049.8841</v>
+        <v>19969.8405</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.436</v>
+        <v>10.4569</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0132</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>10.5775</v>
       </c>
       <c r="C5" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D5" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E5" s="1">
-        <v>2872.2887</v>
+        <v>2866.5439</v>
       </c>
       <c r="F5" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="H5" s="1">
-        <v>30381.6334</v>
+        <v>30260.0969</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30381.6334</v>
+        <v>30260.0969</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4446</v>
+        <v>10.4656</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.011</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>10.7066</v>
       </c>
       <c r="C6" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D6" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E6" s="1">
-        <v>3817.6916</v>
+        <v>3810.0558</v>
       </c>
       <c r="F6" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="H6" s="1">
-        <v>40874.4974</v>
+        <v>40711.2082</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40874.4974</v>
+        <v>40711.2082</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4775</v>
+        <v>10.4985</v>
       </c>
       <c r="M6" s="1">
         <v>0.2</v>
       </c>
       <c r="N6" s="1">
-        <v>517.0119999999999</v>
+        <v>515.9779</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9482.987999999999</v>
+        <v>-9484.0221</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0122</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>11.1511</v>
       </c>
       <c r="C7" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D7" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E7" s="1">
-        <v>4751.695</v>
+        <v>4742.1873</v>
       </c>
       <c r="F7" s="1">
-        <v>903.396</v>
+        <v>901.5717</v>
       </c>
       <c r="H7" s="1">
-        <v>52986.6258</v>
+        <v>52774.854</v>
       </c>
       <c r="I7" s="1">
-        <v>517.0119999999999</v>
+        <v>515.9779</v>
       </c>
       <c r="J7" s="1">
-        <v>53503.6378</v>
+        <v>53290.8319</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.5226</v>
+        <v>10.5437</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10073.8589</v>
+        <v>-10073.7111</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0517</v>
+        <v>0.0509</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>11.5294</v>
       </c>
       <c r="C8" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D8" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E8" s="1">
-        <v>5655.0909</v>
+        <v>5643.759</v>
       </c>
       <c r="F8" s="1">
-        <v>873.7464</v>
+        <v>871.994</v>
       </c>
       <c r="H8" s="1">
-        <v>65199.8056</v>
+        <v>64938.7839</v>
       </c>
       <c r="I8" s="1">
-        <v>443.1531</v>
+        <v>442.2668</v>
       </c>
       <c r="J8" s="1">
-        <v>65642.9587</v>
+        <v>65381.0507</v>
       </c>
       <c r="K8" s="1">
-        <v>60073.8589</v>
+        <v>60073.7111</v>
       </c>
       <c r="L8" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10073.8589</v>
+        <v>-10073.7111</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0337</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>10.9136</v>
       </c>
       <c r="C9" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D9" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E9" s="1">
-        <v>6528.8373</v>
+        <v>6515.753</v>
       </c>
       <c r="F9" s="1">
-        <v>923.0555000000001</v>
+        <v>921.1935</v>
       </c>
       <c r="H9" s="1">
-        <v>71253.11900000001</v>
+        <v>70968.2787</v>
       </c>
       <c r="I9" s="1">
-        <v>369.2943</v>
+        <v>368.5556</v>
       </c>
       <c r="J9" s="1">
-        <v>71622.4133</v>
+        <v>71336.8343</v>
       </c>
       <c r="K9" s="1">
-        <v>70147.71769999999</v>
+        <v>70147.42230000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.7443</v>
+        <v>10.7658</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2544.7909</v>
+        <v>2539.6915</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7529.0679</v>
+        <v>-7534.0196</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0532</v>
+        <v>-0.0537</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>11.2587</v>
       </c>
       <c r="C10" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D10" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E10" s="1">
-        <v>7451.8929</v>
+        <v>7436.9465</v>
       </c>
       <c r="F10" s="1">
-        <v>951.2694</v>
+        <v>949.2376</v>
       </c>
       <c r="H10" s="1">
-        <v>83897.8809</v>
+        <v>83563.018</v>
       </c>
       <c r="I10" s="1">
-        <v>2840.2263</v>
+        <v>2834.5361</v>
       </c>
       <c r="J10" s="1">
-        <v>86738.1072</v>
+        <v>86397.55409999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80221.5766</v>
+        <v>80221.13340000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.7653</v>
+        <v>10.7868</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10710.0566</v>
+        <v>-10708.634</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.06270000000000001</v>
+        <v>0.0622</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>11.6434</v>
       </c>
       <c r="C11" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D11" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E11" s="1">
-        <v>8403.162200000001</v>
+        <v>8386.1841</v>
       </c>
       <c r="F11" s="1">
-        <v>919.8393</v>
+        <v>917.8803</v>
       </c>
       <c r="H11" s="1">
-        <v>97841.3792</v>
+        <v>97448.2975</v>
       </c>
       <c r="I11" s="1">
-        <v>2130.1697</v>
+        <v>2125.902</v>
       </c>
       <c r="J11" s="1">
-        <v>99971.54889999999</v>
+        <v>99574.1995</v>
       </c>
       <c r="K11" s="1">
-        <v>90931.63310000001</v>
+        <v>90929.7674</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8211</v>
+        <v>10.8428</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10710.0566</v>
+        <v>-10708.634</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0334</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>11.3141</v>
       </c>
       <c r="C12" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D12" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E12" s="1">
-        <v>9323.0015</v>
+        <v>9304.064399999999</v>
       </c>
       <c r="F12" s="1">
-        <v>946.6114</v>
+        <v>944.5905</v>
       </c>
       <c r="H12" s="1">
-        <v>105481.3714</v>
+        <v>105056.8428</v>
       </c>
       <c r="I12" s="1">
-        <v>1420.1132</v>
+        <v>1417.268</v>
       </c>
       <c r="J12" s="1">
-        <v>106901.4845</v>
+        <v>106474.1108</v>
       </c>
       <c r="K12" s="1">
-        <v>101641.6897</v>
+        <v>101638.4014</v>
       </c>
       <c r="L12" s="1">
-        <v>10.9022</v>
+        <v>10.9241</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>3025.1384</v>
+        <v>3019.0263</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7684.9182</v>
+        <v>-7689.6077</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0279</v>
+        <v>-0.0283</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>11.003</v>
       </c>
       <c r="C13" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D13" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E13" s="1">
-        <v>10269.613</v>
+        <v>10248.6549</v>
       </c>
       <c r="F13" s="1">
-        <v>1248.3136</v>
+        <v>1245.128</v>
       </c>
       <c r="H13" s="1">
-        <v>112996.5514</v>
+        <v>112540.4795</v>
       </c>
       <c r="I13" s="1">
-        <v>3735.195</v>
+        <v>3727.6603</v>
       </c>
       <c r="J13" s="1">
-        <v>116731.7464</v>
+        <v>116268.1397</v>
       </c>
       <c r="K13" s="1">
-        <v>112351.7463</v>
+        <v>112347.0354</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9402</v>
+        <v>10.9621</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13735.195</v>
+        <v>-13727.6603</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0015</v>
+        <v>-0.0018</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>11.1102</v>
       </c>
       <c r="C14" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D14" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E14" s="1">
-        <v>11517.9266</v>
+        <v>11493.7829</v>
       </c>
       <c r="F14" s="1">
-        <v>-11517.9266</v>
+        <v>-11493.7829</v>
       </c>
       <c r="H14" s="1">
-        <v>127966.4681</v>
+        <v>127443.0644</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>127966.4681</v>
+        <v>127443.0644</v>
       </c>
       <c r="K14" s="1">
-        <v>126086.9413</v>
+        <v>126074.6957</v>
       </c>
       <c r="L14" s="1">
-        <v>10.947</v>
+        <v>10.9689</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127966.4681</v>
+        <v>127443.0644</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0097</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1386,7 +1386,7 @@
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -1456,16 +1456,16 @@
         <v>10.5481</v>
       </c>
       <c r="C2" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D2" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.3262</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E3" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="F3" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9789.6304</v>
+        <v>9750.5015</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9789.6304</v>
+        <v>9750.5015</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="M3" s="1">
         <v>0.25</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.021</v>
+        <v>-0.0249</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>10.462</v>
       </c>
       <c r="C4" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D4" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E4" s="1">
-        <v>1916.4485</v>
+        <v>1912.6185</v>
       </c>
       <c r="F4" s="1">
-        <v>951.0721</v>
+        <v>953.9254</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20049.8841</v>
+        <v>19969.8405</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20049.8841</v>
+        <v>19969.8405</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.436</v>
+        <v>10.4569</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9950.115900000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0132</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>10.5775</v>
       </c>
       <c r="C5" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D5" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E5" s="1">
-        <v>2867.5206</v>
+        <v>2866.5439</v>
       </c>
       <c r="F5" s="1">
-        <v>914.0914</v>
+        <v>922.6626</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30331.1986</v>
+        <v>30260.0969</v>
       </c>
       <c r="I5" s="1">
-        <v>49.8841</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30381.0827</v>
+        <v>30260.0969</v>
       </c>
       <c r="K5" s="1">
-        <v>29950.1159</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4446</v>
+        <v>10.4656</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9668.8014</v>
+        <v>-9779.023999999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.011</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>10.7066</v>
       </c>
       <c r="C6" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D6" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E6" s="1">
-        <v>3781.6119</v>
+        <v>3789.2064</v>
       </c>
       <c r="F6" s="1">
-        <v>888.4047</v>
+        <v>890.1631</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40488.2061</v>
+        <v>40488.4287</v>
       </c>
       <c r="I6" s="1">
-        <v>381.0827</v>
+        <v>220.976</v>
       </c>
       <c r="J6" s="1">
-        <v>40869.2888</v>
+        <v>40709.4047</v>
       </c>
       <c r="K6" s="1">
-        <v>39618.9173</v>
+        <v>39779.024</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4767</v>
+        <v>10.498</v>
       </c>
       <c r="M6" s="1">
         <v>0.2</v>
       </c>
       <c r="N6" s="1">
-        <v>516.1537</v>
+        <v>515.9779</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8995.6402</v>
+        <v>-9033.7814</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0121</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>11.1511</v>
       </c>
       <c r="C7" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D7" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E7" s="1">
-        <v>4670.0166</v>
+        <v>4679.3696</v>
       </c>
       <c r="F7" s="1">
-        <v>710.6185</v>
+        <v>712.0473</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>52075.8224</v>
+        <v>52075.7684</v>
       </c>
       <c r="I7" s="1">
-        <v>1385.4425</v>
+        <v>1187.1946</v>
       </c>
       <c r="J7" s="1">
-        <v>53461.2649</v>
+        <v>53262.963</v>
       </c>
       <c r="K7" s="1">
-        <v>49130.7112</v>
+        <v>49328.7833</v>
       </c>
       <c r="L7" s="1">
-        <v>10.5205</v>
+        <v>10.5418</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7924.1776</v>
+        <v>-7956.0602</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.051</v>
+        <v>0.0504</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>11.5294</v>
       </c>
       <c r="C8" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D8" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E8" s="1">
-        <v>5380.6351</v>
+        <v>5391.4169</v>
       </c>
       <c r="F8" s="1">
-        <v>690.7997</v>
+        <v>692.2069</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>62035.4943</v>
+        <v>62035.2599</v>
       </c>
       <c r="I8" s="1">
-        <v>3461.2649</v>
+        <v>3231.1345</v>
       </c>
       <c r="J8" s="1">
-        <v>65496.7591</v>
+        <v>65266.3943</v>
       </c>
       <c r="K8" s="1">
-        <v>57054.8888</v>
+        <v>57284.8434</v>
       </c>
       <c r="L8" s="1">
-        <v>10.6037</v>
+        <v>10.6252</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7964.5748</v>
+        <v>-7996.7201</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0321</v>
+        <v>0.0317</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>10.9136</v>
       </c>
       <c r="C9" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D9" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E9" s="1">
-        <v>6071.4348</v>
+        <v>6083.6238</v>
       </c>
       <c r="F9" s="1">
-        <v>1258.8687</v>
+        <v>1261.3514</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>66261.2105</v>
+        <v>66261.61320000001</v>
       </c>
       <c r="I9" s="1">
-        <v>5496.6901</v>
+        <v>5234.4144</v>
       </c>
       <c r="J9" s="1">
-        <v>71757.9005</v>
+        <v>71496.0276</v>
       </c>
       <c r="K9" s="1">
-        <v>65019.4636</v>
+        <v>65281.5635</v>
       </c>
       <c r="L9" s="1">
-        <v>10.7091</v>
+        <v>10.7307</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2421.2858</v>
+        <v>2426.1376</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11317.5037</v>
+        <v>-11367.3703</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0495</v>
+        <v>-0.0501</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>11.2587</v>
       </c>
       <c r="C10" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D10" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E10" s="1">
-        <v>7330.3035</v>
+        <v>7344.9751</v>
       </c>
       <c r="F10" s="1">
-        <v>663.5856</v>
+        <v>664.8502999999999</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>82528.9547</v>
+        <v>82529.6094</v>
       </c>
       <c r="I10" s="1">
-        <v>4179.1863</v>
+        <v>3867.0441</v>
       </c>
       <c r="J10" s="1">
-        <v>86708.141</v>
+        <v>86396.6535</v>
       </c>
       <c r="K10" s="1">
-        <v>78758.25320000001</v>
+        <v>79075.0714</v>
       </c>
       <c r="L10" s="1">
-        <v>10.7442</v>
+        <v>10.7659</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7471.1117</v>
+        <v>-7500.3753</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0605</v>
+        <v>0.0601</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>11.6434</v>
       </c>
       <c r="C11" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D11" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E11" s="1">
-        <v>7993.8891</v>
+        <v>8009.8254</v>
       </c>
       <c r="F11" s="1">
-        <v>594.6675</v>
+        <v>595.9525</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>93076.0485</v>
+        <v>93074.97199999999</v>
       </c>
       <c r="I11" s="1">
-        <v>6708.0747</v>
+        <v>6366.6688</v>
       </c>
       <c r="J11" s="1">
-        <v>99784.1232</v>
+        <v>99441.64079999999</v>
       </c>
       <c r="K11" s="1">
-        <v>86229.3648</v>
+        <v>86575.4467</v>
       </c>
       <c r="L11" s="1">
-        <v>10.7869</v>
+        <v>10.8087</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6923.9515</v>
+        <v>-6952.7994</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0318</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>11.3141</v>
       </c>
       <c r="C12" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D12" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E12" s="1">
-        <v>8588.5566</v>
+        <v>8605.777899999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1133.8252</v>
+        <v>1136.0633</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>97171.7883</v>
+        <v>97172.14139999999</v>
       </c>
       <c r="I12" s="1">
-        <v>9784.1232</v>
+        <v>9413.8694</v>
       </c>
       <c r="J12" s="1">
-        <v>106955.9115</v>
+        <v>106586.0107</v>
       </c>
       <c r="K12" s="1">
-        <v>93153.31630000001</v>
+        <v>93528.2461</v>
       </c>
       <c r="L12" s="1">
-        <v>10.8462</v>
+        <v>10.8681</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>2877.8001</v>
+        <v>2883.5371</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9950.411599999999</v>
+        <v>-9995.7852</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0258</v>
+        <v>-0.0261</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>11.003</v>
       </c>
       <c r="C13" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D13" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E13" s="1">
-        <v>9722.381799999999</v>
+        <v>9741.841200000001</v>
       </c>
       <c r="F13" s="1">
-        <v>1183.7347</v>
+        <v>1186.1253</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>106975.367</v>
+        <v>106975.1583</v>
       </c>
       <c r="I13" s="1">
-        <v>9833.711600000001</v>
+        <v>9418.084199999999</v>
       </c>
       <c r="J13" s="1">
-        <v>116809.0786</v>
+        <v>116393.2425</v>
       </c>
       <c r="K13" s="1">
-        <v>105981.528</v>
+        <v>106407.5684</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9008</v>
+        <v>10.9227</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13024.633</v>
+        <v>-13077.1498</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0013</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>11.1102</v>
       </c>
       <c r="C14" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D14" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E14" s="1">
-        <v>10906.1165</v>
+        <v>10927.9665</v>
       </c>
       <c r="F14" s="1">
-        <v>-10906.1165</v>
+        <v>-10927.9665</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121169.1357</v>
+        <v>121169.2924</v>
       </c>
       <c r="I14" s="1">
-        <v>6809.0786</v>
+        <v>6340.9344</v>
       </c>
       <c r="J14" s="1">
-        <v>127978.2143</v>
+        <v>127510.2268</v>
       </c>
       <c r="K14" s="1">
-        <v>119006.161</v>
+        <v>119484.7182</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9119</v>
+        <v>10.9338</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121169.1357</v>
+        <v>121169.2924</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0092</v>
+        <v>0.008800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.5481</v>
       </c>
       <c r="C2" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D2" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.3262</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E3" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="F3" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9789.6304</v>
+        <v>9750.5015</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9789.6304</v>
+        <v>9750.5015</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="M3" s="1">
         <v>0.25</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.021</v>
+        <v>-0.0249</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>10.462</v>
       </c>
       <c r="C4" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D4" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E4" s="1">
-        <v>1916.4485</v>
+        <v>1912.6185</v>
       </c>
       <c r="F4" s="1">
-        <v>955.8402</v>
+        <v>953.9254</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20049.8841</v>
+        <v>19969.8405</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20049.8841</v>
+        <v>19969.8405</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.436</v>
+        <v>10.4569</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0132</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>10.5775</v>
       </c>
       <c r="C5" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D5" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E5" s="1">
-        <v>2872.2887</v>
+        <v>2866.5439</v>
       </c>
       <c r="F5" s="1">
-        <v>937.78</v>
+        <v>943.5119</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30381.6334</v>
+        <v>30260.0969</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30381.6334</v>
+        <v>30260.0969</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4446</v>
+        <v>10.4656</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9919.3678</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.011</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>10.7066</v>
       </c>
       <c r="C6" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D6" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E6" s="1">
-        <v>3810.0687</v>
+        <v>3810.0558</v>
       </c>
       <c r="F6" s="1">
-        <v>906.8822</v>
+        <v>916.342</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>40792.8811</v>
+        <v>40711.2082</v>
       </c>
       <c r="I6" s="1">
-        <v>80.6322</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40873.5133</v>
+        <v>40711.2082</v>
       </c>
       <c r="K6" s="1">
-        <v>39919.3678</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4773</v>
+        <v>10.4985</v>
       </c>
       <c r="M6" s="1">
         <v>0.2</v>
       </c>
       <c r="N6" s="1">
-        <v>517.0119999999999</v>
+        <v>515.9779</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9192.6132</v>
+        <v>-9314.6312</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0122</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>11.1511</v>
       </c>
       <c r="C7" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D7" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E7" s="1">
-        <v>4716.9509</v>
+        <v>4726.3978</v>
       </c>
       <c r="F7" s="1">
-        <v>731.3922</v>
+        <v>732.8627</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>52599.1909</v>
+        <v>52599.1363</v>
       </c>
       <c r="I7" s="1">
-        <v>888.019</v>
+        <v>685.3688</v>
       </c>
       <c r="J7" s="1">
-        <v>53487.2099</v>
+        <v>53284.5051</v>
       </c>
       <c r="K7" s="1">
-        <v>49628.993</v>
+        <v>49830.6091</v>
       </c>
       <c r="L7" s="1">
-        <v>10.5214</v>
+        <v>10.543</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8155.8279</v>
+        <v>-8188.6414</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0514</v>
+        <v>0.0507</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>11.5294</v>
       </c>
       <c r="C8" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D8" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E8" s="1">
-        <v>5448.3431</v>
+        <v>5459.2605</v>
       </c>
       <c r="F8" s="1">
-        <v>714.9259</v>
+        <v>716.3818</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>62816.127</v>
+        <v>62815.8896</v>
       </c>
       <c r="I8" s="1">
-        <v>2732.1911</v>
+        <v>2496.7274</v>
       </c>
       <c r="J8" s="1">
-        <v>65548.3181</v>
+        <v>65312.617</v>
       </c>
       <c r="K8" s="1">
-        <v>57784.8209</v>
+        <v>58019.2505</v>
       </c>
       <c r="L8" s="1">
-        <v>10.6059</v>
+        <v>10.6277</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8242.7384</v>
+        <v>-8276.001099999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0325</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>10.9136</v>
       </c>
       <c r="C9" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D9" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E9" s="1">
-        <v>6163.269</v>
+        <v>6175.6424</v>
       </c>
       <c r="F9" s="1">
-        <v>1296.6056</v>
+        <v>1299.1632</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>67263.4528</v>
+        <v>67263.8616</v>
       </c>
       <c r="I9" s="1">
-        <v>4489.4527</v>
+        <v>4220.7263</v>
       </c>
       <c r="J9" s="1">
-        <v>71752.90549999999</v>
+        <v>71484.5879</v>
       </c>
       <c r="K9" s="1">
-        <v>66027.5592</v>
+        <v>66295.2516</v>
       </c>
       <c r="L9" s="1">
-        <v>10.7131</v>
+        <v>10.735</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2451.7544</v>
+        <v>2456.6672</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11698.8806</v>
+        <v>-11750.3324</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0502</v>
+        <v>-0.0508</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>11.2587</v>
       </c>
       <c r="C10" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D10" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E10" s="1">
-        <v>7459.8746</v>
+        <v>7474.8056</v>
       </c>
       <c r="F10" s="1">
-        <v>695.7716</v>
+        <v>697.0993</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>83987.74460000001</v>
+        <v>83988.4109</v>
       </c>
       <c r="I10" s="1">
-        <v>2790.5721</v>
+        <v>2470.3939</v>
       </c>
       <c r="J10" s="1">
-        <v>86778.3167</v>
+        <v>86458.8048</v>
       </c>
       <c r="K10" s="1">
-        <v>80178.1943</v>
+        <v>80502.2513</v>
       </c>
       <c r="L10" s="1">
-        <v>10.7479</v>
+        <v>10.7698</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7833.4833</v>
+        <v>-7864.1866</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0615</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>11.6434</v>
       </c>
       <c r="C11" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D11" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E11" s="1">
-        <v>8155.6462</v>
+        <v>8171.9049</v>
       </c>
       <c r="F11" s="1">
-        <v>628.7522</v>
+        <v>630.1074</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>94959.4509</v>
+        <v>94958.3526</v>
       </c>
       <c r="I11" s="1">
-        <v>4957.0888</v>
+        <v>4606.2073</v>
       </c>
       <c r="J11" s="1">
-        <v>99916.5398</v>
+        <v>99564.55989999999</v>
       </c>
       <c r="K11" s="1">
-        <v>88011.67750000001</v>
+        <v>88366.4378</v>
       </c>
       <c r="L11" s="1">
-        <v>10.7915</v>
+        <v>10.8134</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7320.8131</v>
+        <v>-7351.2745</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0324</v>
+        <v>0.0322</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>11.3141</v>
       </c>
       <c r="C12" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D12" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E12" s="1">
-        <v>8784.3984</v>
+        <v>8802.0124</v>
       </c>
       <c r="F12" s="1">
-        <v>1184.7256</v>
+        <v>1187.0648</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>99387.56170000001</v>
+        <v>99387.9228</v>
       </c>
       <c r="I12" s="1">
-        <v>7636.2757</v>
+        <v>7254.9328</v>
       </c>
       <c r="J12" s="1">
-        <v>107023.8374</v>
+        <v>106642.8556</v>
       </c>
       <c r="K12" s="1">
-        <v>95332.49069999999</v>
+        <v>95717.7123</v>
       </c>
       <c r="L12" s="1">
-        <v>10.8525</v>
+        <v>10.8745</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>2936.0326</v>
+        <v>2941.8858</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10468.0711</v>
+        <v>-10515.6308</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0263</v>
+        <v>-0.0267</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>11.003</v>
       </c>
       <c r="C13" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D13" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E13" s="1">
-        <v>9969.124</v>
+        <v>9989.0772</v>
       </c>
       <c r="F13" s="1">
-        <v>1241.9661</v>
+        <v>1244.4738</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>109690.2709</v>
+        <v>109690.0569</v>
       </c>
       <c r="I13" s="1">
-        <v>7168.2046</v>
+        <v>6739.302</v>
       </c>
       <c r="J13" s="1">
-        <v>116858.4755</v>
+        <v>116429.3589</v>
       </c>
       <c r="K13" s="1">
-        <v>108736.5944</v>
+        <v>109175.2289</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9073</v>
+        <v>10.9295</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13665.3528</v>
+        <v>-13720.4481</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0014</v>
+        <v>-0.0018</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>11.1102</v>
       </c>
       <c r="C14" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D14" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E14" s="1">
-        <v>11211.09</v>
+        <v>11233.551</v>
       </c>
       <c r="F14" s="1">
-        <v>-11211.09</v>
+        <v>-11233.551</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124557.4526</v>
+        <v>124557.6137</v>
       </c>
       <c r="I14" s="1">
-        <v>3502.8518</v>
+        <v>3018.8539</v>
       </c>
       <c r="J14" s="1">
-        <v>128060.3044</v>
+        <v>127576.4676</v>
       </c>
       <c r="K14" s="1">
-        <v>122401.9472</v>
+        <v>122895.677</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9179</v>
+        <v>10.9401</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124557.4526</v>
+        <v>124557.6137</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0095</v>
+        <v>0.0091</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.5481</v>
       </c>
       <c r="C2" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D2" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.3262</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E3" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="F3" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9789.6304</v>
+        <v>9750.5015</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9789.6304</v>
+        <v>9750.5015</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="M3" s="1">
         <v>0.25</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.021</v>
+        <v>-0.0249</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>10.462</v>
       </c>
       <c r="C4" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D4" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E4" s="1">
-        <v>1916.4485</v>
+        <v>1912.6185</v>
       </c>
       <c r="F4" s="1">
-        <v>955.8402</v>
+        <v>953.9254</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20049.8841</v>
+        <v>19969.8405</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20049.8841</v>
+        <v>19969.8405</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.436</v>
+        <v>10.4569</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0132</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>10.5775</v>
       </c>
       <c r="C5" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D5" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E5" s="1">
-        <v>2872.2887</v>
+        <v>2866.5439</v>
       </c>
       <c r="F5" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30381.6334</v>
+        <v>30260.0969</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30381.6334</v>
+        <v>30260.0969</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4446</v>
+        <v>10.4656</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.011</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>10.7066</v>
       </c>
       <c r="C6" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D6" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E6" s="1">
-        <v>3817.6916</v>
+        <v>3810.0558</v>
       </c>
       <c r="F6" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40874.4974</v>
+        <v>40711.2082</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40874.4974</v>
+        <v>40711.2082</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4775</v>
+        <v>10.4985</v>
       </c>
       <c r="M6" s="1">
         <v>0.2</v>
       </c>
       <c r="N6" s="1">
-        <v>517.0119999999999</v>
+        <v>515.9779</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9482.987999999999</v>
+        <v>-9484.0221</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0122</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>11.1511</v>
       </c>
       <c r="C7" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D7" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E7" s="1">
-        <v>4751.695</v>
+        <v>4742.1873</v>
       </c>
       <c r="F7" s="1">
-        <v>765.263</v>
+        <v>785.8257</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>52986.6258</v>
+        <v>52774.854</v>
       </c>
       <c r="I7" s="1">
-        <v>517.0119999999999</v>
+        <v>515.9779</v>
       </c>
       <c r="J7" s="1">
-        <v>53503.6378</v>
+        <v>53290.8319</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.5226</v>
+        <v>10.5437</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8533.524799999999</v>
+        <v>-8780.423000000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0517</v>
+        <v>0.0509</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>11.5294</v>
       </c>
       <c r="C8" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D8" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E8" s="1">
-        <v>5516.958</v>
+        <v>5528.013</v>
       </c>
       <c r="F8" s="1">
-        <v>739.686</v>
+        <v>741.1919</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>63607.2158</v>
+        <v>63606.9755</v>
       </c>
       <c r="I8" s="1">
-        <v>1983.4872</v>
+        <v>1735.5549</v>
       </c>
       <c r="J8" s="1">
-        <v>65590.70299999999</v>
+        <v>65342.5304</v>
       </c>
       <c r="K8" s="1">
-        <v>58533.5248</v>
+        <v>58780.423</v>
       </c>
       <c r="L8" s="1">
-        <v>10.6097</v>
+        <v>10.6332</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8528.210300000001</v>
+        <v>-8562.619699999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0329</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>10.9136</v>
       </c>
       <c r="C9" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D9" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E9" s="1">
-        <v>6256.6441</v>
+        <v>6269.2049</v>
       </c>
       <c r="F9" s="1">
-        <v>1232.8908</v>
+        <v>1204.6029</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>68282.5107</v>
+        <v>68282.92570000001</v>
       </c>
       <c r="I9" s="1">
-        <v>3455.2769</v>
+        <v>3172.9352</v>
       </c>
       <c r="J9" s="1">
-        <v>71737.7876</v>
+        <v>71455.861</v>
       </c>
       <c r="K9" s="1">
-        <v>67061.735</v>
+        <v>67343.0426</v>
       </c>
       <c r="L9" s="1">
-        <v>10.7185</v>
+        <v>10.7419</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2482.6311</v>
+        <v>2487.6058</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10972.6458</v>
+        <v>-10685.3294</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.051</v>
+        <v>-0.0516</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>11.2587</v>
       </c>
       <c r="C10" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D10" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E10" s="1">
-        <v>7489.5349</v>
+        <v>7473.8078</v>
       </c>
       <c r="F10" s="1">
-        <v>831.6838</v>
+        <v>863.9997</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>84321.6771</v>
+        <v>83977.1992</v>
       </c>
       <c r="I10" s="1">
-        <v>2482.6311</v>
+        <v>2487.6058</v>
       </c>
       <c r="J10" s="1">
-        <v>86804.3082</v>
+        <v>86464.80499999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80517.012</v>
+        <v>80515.9779</v>
       </c>
       <c r="L10" s="1">
-        <v>10.7506</v>
+        <v>10.7731</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9363.6787</v>
+        <v>-9747.0399</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.062</v>
+        <v>0.0615</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>11.6434</v>
       </c>
       <c r="C11" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D11" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E11" s="1">
-        <v>8321.218699999999</v>
+        <v>8337.807500000001</v>
       </c>
       <c r="F11" s="1">
-        <v>664.3117999999999</v>
+        <v>665.7403</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>96887.2776</v>
+        <v>96886.15700000001</v>
       </c>
       <c r="I11" s="1">
-        <v>3118.9524</v>
+        <v>2740.566</v>
       </c>
       <c r="J11" s="1">
-        <v>100006.23</v>
+        <v>99626.723</v>
       </c>
       <c r="K11" s="1">
-        <v>89880.69070000001</v>
+        <v>90263.0177</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8014</v>
+        <v>10.8257</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7734.8478</v>
+        <v>-7766.9919</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0331</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>11.3141</v>
       </c>
       <c r="C12" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D12" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E12" s="1">
-        <v>8985.530500000001</v>
+        <v>9003.5478</v>
       </c>
       <c r="F12" s="1">
-        <v>1237.8498</v>
+        <v>1240.2947</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>101663.1902</v>
+        <v>101663.5596</v>
       </c>
       <c r="I12" s="1">
-        <v>5384.1046</v>
+        <v>4973.5741</v>
       </c>
       <c r="J12" s="1">
-        <v>107047.2948</v>
+        <v>106637.1337</v>
       </c>
       <c r="K12" s="1">
-        <v>97615.5385</v>
+        <v>98030.0097</v>
       </c>
       <c r="L12" s="1">
-        <v>10.8636</v>
+        <v>10.8879</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>2995.6387</v>
+        <v>3001.6107</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11009.5177</v>
+        <v>-11059.3617</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0269</v>
+        <v>-0.0273</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>11.003</v>
       </c>
       <c r="C13" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D13" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E13" s="1">
-        <v>10223.3803</v>
+        <v>10243.8424</v>
       </c>
       <c r="F13" s="1">
-        <v>1303.0244</v>
+        <v>1262.0486</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>112487.8531</v>
+        <v>112487.6336</v>
       </c>
       <c r="I13" s="1">
-        <v>4374.5869</v>
+        <v>3914.2124</v>
       </c>
       <c r="J13" s="1">
-        <v>116862.44</v>
+        <v>116401.846</v>
       </c>
       <c r="K13" s="1">
-        <v>111620.6949</v>
+        <v>112090.9821</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9182</v>
+        <v>10.9423</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-14337.1771</v>
+        <v>-13914.2124</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0016</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>11.1102</v>
       </c>
       <c r="C14" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D14" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E14" s="1">
-        <v>11526.4046</v>
+        <v>11505.891</v>
       </c>
       <c r="F14" s="1">
-        <v>-11526.4046</v>
+        <v>-11505.891</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>128060.6607</v>
+        <v>127577.32</v>
       </c>
       <c r="I14" s="1">
-        <v>37.4098</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>128098.0705</v>
+        <v>127577.32</v>
       </c>
       <c r="K14" s="1">
-        <v>125957.872</v>
+        <v>126005.1944</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9278</v>
+        <v>10.9514</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128060.6607</v>
+        <v>127577.32</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0097</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.5481</v>
       </c>
       <c r="C2" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D2" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.3262</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E3" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="F3" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9789.6304</v>
+        <v>9750.5015</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9789.6304</v>
+        <v>9750.5015</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="M3" s="1">
         <v>0.25</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.021</v>
+        <v>-0.0249</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>10.462</v>
       </c>
       <c r="C4" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D4" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E4" s="1">
-        <v>1916.4485</v>
+        <v>1912.6185</v>
       </c>
       <c r="F4" s="1">
-        <v>955.8402</v>
+        <v>953.9254</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20049.8841</v>
+        <v>19969.8405</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20049.8841</v>
+        <v>19969.8405</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.436</v>
+        <v>10.4569</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0132</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>10.5775</v>
       </c>
       <c r="C5" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D5" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E5" s="1">
-        <v>2872.2887</v>
+        <v>2866.5439</v>
       </c>
       <c r="F5" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30381.6334</v>
+        <v>30260.0969</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30381.6334</v>
+        <v>30260.0969</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4446</v>
+        <v>10.4656</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.011</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>10.7066</v>
       </c>
       <c r="C6" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D6" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E6" s="1">
-        <v>3817.6916</v>
+        <v>3810.0558</v>
       </c>
       <c r="F6" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>40874.4974</v>
+        <v>40711.2082</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40874.4974</v>
+        <v>40711.2082</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4775</v>
+        <v>10.4985</v>
       </c>
       <c r="M6" s="1">
         <v>0.2</v>
       </c>
       <c r="N6" s="1">
-        <v>517.0119999999999</v>
+        <v>515.9779</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9482.987999999999</v>
+        <v>-9484.0221</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0122</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>11.1511</v>
       </c>
       <c r="C7" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D7" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E7" s="1">
-        <v>4751.695</v>
+        <v>4742.1873</v>
       </c>
       <c r="F7" s="1">
-        <v>834.7951</v>
+        <v>855.497</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>52986.6258</v>
+        <v>52774.854</v>
       </c>
       <c r="I7" s="1">
-        <v>517.0119999999999</v>
+        <v>515.9779</v>
       </c>
       <c r="J7" s="1">
-        <v>53503.6378</v>
+        <v>53290.8319</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.5226</v>
+        <v>10.5437</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9308.8835</v>
+        <v>-9558.896000000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0517</v>
+        <v>0.0509</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>11.5294</v>
       </c>
       <c r="C8" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D8" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E8" s="1">
-        <v>5586.4901</v>
+        <v>5597.6843</v>
       </c>
       <c r="F8" s="1">
-        <v>765.093</v>
+        <v>766.6502</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>64408.8785</v>
+        <v>64408.6351</v>
       </c>
       <c r="I8" s="1">
-        <v>1208.1285</v>
+        <v>957.0819</v>
       </c>
       <c r="J8" s="1">
-        <v>65617.007</v>
+        <v>65365.7171</v>
       </c>
       <c r="K8" s="1">
-        <v>59308.8835</v>
+        <v>59558.896</v>
       </c>
       <c r="L8" s="1">
-        <v>10.6165</v>
+        <v>10.6399</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8821.139999999999</v>
+        <v>-8856.726000000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0333</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>10.9136</v>
       </c>
       <c r="C9" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D9" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E9" s="1">
-        <v>6351.5831</v>
+        <v>6364.3345</v>
       </c>
       <c r="F9" s="1">
-        <v>1135.0048</v>
+        <v>1106.5206</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>69318.63710000001</v>
+        <v>69319.05839999999</v>
       </c>
       <c r="I9" s="1">
-        <v>2386.9885</v>
+        <v>2100.3559</v>
       </c>
       <c r="J9" s="1">
-        <v>71705.6256</v>
+        <v>71419.4143</v>
       </c>
       <c r="K9" s="1">
-        <v>68130.02340000001</v>
+        <v>68415.622</v>
       </c>
       <c r="L9" s="1">
-        <v>10.7265</v>
+        <v>10.7498</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2513.9205</v>
+        <v>2518.9579</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9873.067999999999</v>
+        <v>-9581.3979</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0517</v>
+        <v>-0.0524</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>11.2587</v>
       </c>
       <c r="C10" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D10" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E10" s="1">
-        <v>7486.5879</v>
+        <v>7470.8551</v>
       </c>
       <c r="F10" s="1">
-        <v>1004.1052</v>
+        <v>1036.7647</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>84288.4984</v>
+        <v>83944.0218</v>
       </c>
       <c r="I10" s="1">
-        <v>2513.9205</v>
+        <v>2518.9579</v>
       </c>
       <c r="J10" s="1">
-        <v>86802.4189</v>
+        <v>86462.9798</v>
       </c>
       <c r="K10" s="1">
-        <v>80517.012</v>
+        <v>80515.9779</v>
       </c>
       <c r="L10" s="1">
-        <v>10.7548</v>
+        <v>10.7773</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11304.9189</v>
+        <v>-11696.0532</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0624</v>
+        <v>0.0619</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>11.6434</v>
       </c>
       <c r="C11" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D11" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E11" s="1">
-        <v>8490.6931</v>
+        <v>8507.619699999999</v>
       </c>
       <c r="F11" s="1">
-        <v>701.4</v>
+        <v>702.9048</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>98860.5356</v>
+        <v>98859.3921</v>
       </c>
       <c r="I11" s="1">
-        <v>1209.0016</v>
+        <v>822.9047</v>
       </c>
       <c r="J11" s="1">
-        <v>100069.5372</v>
+        <v>99682.2969</v>
       </c>
       <c r="K11" s="1">
-        <v>91821.93090000001</v>
+        <v>92212.03109999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.8144</v>
+        <v>10.8388</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8166.6811</v>
+        <v>-8200.579900000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0338</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>11.3141</v>
       </c>
       <c r="C12" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D12" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E12" s="1">
-        <v>9192.0931</v>
+        <v>9210.524600000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1152.7493</v>
+        <v>1113.394</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>104000.2604</v>
+        <v>104000.6383</v>
       </c>
       <c r="I12" s="1">
-        <v>3042.3205</v>
+        <v>2622.3248</v>
       </c>
       <c r="J12" s="1">
-        <v>107042.581</v>
+        <v>106622.9631</v>
       </c>
       <c r="K12" s="1">
-        <v>99988.6119</v>
+        <v>100412.611</v>
       </c>
       <c r="L12" s="1">
-        <v>10.8777</v>
+        <v>10.9019</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>3056.6495</v>
+        <v>3062.7431</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9985.671</v>
+        <v>-9559.581700000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0275</v>
+        <v>-0.0279</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>11.003</v>
       </c>
       <c r="C13" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D13" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E13" s="1">
-        <v>10344.8424</v>
+        <v>10323.9186</v>
       </c>
       <c r="F13" s="1">
-        <v>1186.6445</v>
+        <v>1184.8186</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>113824.3005</v>
+        <v>113366.9497</v>
       </c>
       <c r="I13" s="1">
-        <v>3056.6495</v>
+        <v>3062.7431</v>
       </c>
       <c r="J13" s="1">
-        <v>116880.95</v>
+        <v>116429.6928</v>
       </c>
       <c r="K13" s="1">
-        <v>113030.9325</v>
+        <v>113034.9358</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9263</v>
+        <v>10.9488</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13056.6495</v>
+        <v>-13062.7431</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0014</v>
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>11.1102</v>
       </c>
       <c r="C14" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D14" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E14" s="1">
-        <v>11531.4869</v>
+        <v>11508.7371</v>
       </c>
       <c r="F14" s="1">
-        <v>-11531.4869</v>
+        <v>-11508.7371</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>128117.1254</v>
+        <v>127608.8772</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>128117.1254</v>
+        <v>127608.8772</v>
       </c>
       <c r="K14" s="1">
-        <v>126087.582</v>
+        <v>126097.6789</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9342</v>
+        <v>10.9567</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128117.1254</v>
+        <v>127608.8772</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0097</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4452,9 +4452,9 @@
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.947</v>
+        <v>10.9689</v>
       </c>
       <c r="D3" s="1">
-        <v>10.9119</v>
+        <v>10.9338</v>
       </c>
       <c r="E3" s="1">
-        <v>10.9179</v>
+        <v>10.9401</v>
       </c>
       <c r="F3" s="1">
-        <v>10.9278</v>
+        <v>10.9514</v>
       </c>
       <c r="G3" s="1">
-        <v>10.9342</v>
+        <v>10.9567</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0571</v>
       </c>
       <c r="C4" s="3">
-        <v>0.124</v>
+        <v>0.1117</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1233</v>
+        <v>0.1117</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1246</v>
+        <v>0.1128</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1253</v>
+        <v>0.113</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1256</v>
+        <v>0.1134</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1008</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1103</v>
+        <v>0.111</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1055</v>
+        <v>0.1065</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1069</v>
+        <v>0.1079</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1081</v>
+        <v>0.109</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1091</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.3653</v>
       </c>
       <c r="C6" s="4">
-        <v>0.9408</v>
+        <v>0.823</v>
       </c>
       <c r="D6" s="4">
-        <v>0.9762999999999999</v>
+        <v>0.8582</v>
       </c>
       <c r="E6" s="4">
-        <v>0.9754</v>
+        <v>0.857</v>
       </c>
       <c r="F6" s="4">
-        <v>0.9707</v>
+        <v>0.8502</v>
       </c>
       <c r="G6" s="4">
-        <v>0.9645</v>
+        <v>0.8459</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1267</v>
+        <v>0.1182</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1333</v>
+        <v>0.1248</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1321</v>
+        <v>0.1236</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1305</v>
+        <v>0.1217</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1296</v>
+        <v>0.1211</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6086.9413</v>
+        <v>6074.6957</v>
       </c>
       <c r="D8" s="1">
-        <v>5815.2396</v>
+        <v>5825.6526</v>
       </c>
       <c r="E8" s="1">
-        <v>5904.799</v>
+        <v>5914.5309</v>
       </c>
       <c r="F8" s="1">
-        <v>5995.2818</v>
+        <v>6005.1944</v>
       </c>
       <c r="G8" s="1">
-        <v>6087.582</v>
+        <v>6097.6789</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P98_KFSDIV.xlsx
+++ b/output/1Y_P98_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>7082.0875</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0107</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0748</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0457</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0167</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
